--- a/biology/Zoologie/Chilabothrus_fordii/Chilabothrus_fordii.xlsx
+++ b/biology/Zoologie/Chilabothrus_fordii/Chilabothrus_fordii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chilabothrus fordii est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chilabothrus fordii est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1]. Elle se rencontre en République dominicaine et en Haïti.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola. Elle se rencontre en République dominicaine et en Haïti.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 septembre 2014) :
 Chilabothrus fordii agametus (Sheplan &amp; Schwartz, 1974)
 Chilabothrus fordii fordii (Günther, 1861)
 Chilabothrus fordii manototus (Schwartz, 1979)</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de George Henry Ford (1809-1876), employé pour illustrer les publications[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de George Henry Ford (1809-1876), employé pour illustrer les publications.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1861 : On a new species of the family Boidae. Proceedings of the Zoological Society of London, vol. 1861, p. 142 (texte intégral).
 Schwartz, 1979 : The herpetofauna of Île à Cabrit, Haiti, with the description of two new subspecies. Herpetologica, vol. 35, no 3, p. 248-255.
